--- a/testScenario_tcases_.xlsx
+++ b/testScenario_tcases_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HomePage" sheetId="9" r:id="rId6"/>
     <sheet name="Order status" sheetId="4" r:id="rId7"/>
     <sheet name="Bug Report Tool" sheetId="7" r:id="rId8"/>
+    <sheet name="Test Metrices" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="207">
   <si>
     <t>Test Report</t>
   </si>
@@ -674,6 +675,60 @@
   </si>
   <si>
     <t>verify the working of Order StatusPage</t>
+  </si>
+  <si>
+    <t>Test Metrices</t>
+  </si>
+  <si>
+    <t>No. of Requirements</t>
+  </si>
+  <si>
+    <t>Average no of Test cases written per requirement</t>
+  </si>
+  <si>
+    <t>Total no of Test cases written for all</t>
+  </si>
+  <si>
+    <t>Total no of Test cases executed for all</t>
+  </si>
+  <si>
+    <t>Total no of Test cases failed</t>
+  </si>
+  <si>
+    <t>Total no of Test cases Blocked</t>
+  </si>
+  <si>
+    <t>Total no of Test cases Unexecuted</t>
+  </si>
+  <si>
+    <t>Total no of Test cases Identified</t>
+  </si>
+  <si>
+    <t>Critical defects count</t>
+  </si>
+  <si>
+    <t>Higher defects count</t>
+  </si>
+  <si>
+    <t>Medium defects count</t>
+  </si>
+  <si>
+    <t>Low defects count</t>
+  </si>
+  <si>
+    <t>Customer defects</t>
+  </si>
+  <si>
+    <t>% of Test cases passed</t>
+  </si>
+  <si>
+    <t>% of test cases failed</t>
+  </si>
+  <si>
+    <t>Total no of Test cases Passed</t>
+  </si>
+  <si>
+    <t>% of test cases blocked</t>
   </si>
 </sst>
 </file>
@@ -725,7 +780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,7 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,13 +904,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -852,6 +919,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1975,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2210,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3311,7 +3384,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3654,4 +3727,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="25">
+        <v>23</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="25">
+        <v>11</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>